--- a/Pruebas/ResultadosEncusta.xlsx
+++ b/Pruebas/ResultadosEncusta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15320" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15320" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Encuesta General" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Encuesta Funcionario Disico" sheetId="3" r:id="rId3"/>
     <sheet name="Encuesta Jefe Area" sheetId="4" r:id="rId4"/>
     <sheet name="Encuesta Jefe Depto" sheetId="5" r:id="rId5"/>
+    <sheet name="x" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>P1</t>
   </si>
@@ -84,6 +85,18 @@
   <si>
     <t>Pregunta</t>
   </si>
+  <si>
+    <t>Encuesta General</t>
+  </si>
+  <si>
+    <t>Encuesta Solicitante</t>
+  </si>
+  <si>
+    <t>Encuesta Jefe Depto</t>
+  </si>
+  <si>
+    <t>ENCUESTA PERFIL JEFE DE AREA</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,16 +137,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,26 +179,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -183,6 +321,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Encuesta General</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -198,7 +351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Encuesta Funcionario Disico'!$A$5</c:f>
+              <c:f>'Encuesta General'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -208,11 +361,21 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Encuesta Funcionario Disico'!$B$1:$S$1</c:f>
+              <c:f>'Encuesta General'!$B$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>P1</c:v>
                 </c:pt>
@@ -227,108 +390,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>P8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>P9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>P11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>P12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>P13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>P14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>P15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>P16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>P17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>P18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Encuesta Funcionario Disico'!$B$5:$S$5</c:f>
+              <c:f>'Encuesta General'!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333332</c:v>
+                  <c:v>4.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333332</c:v>
+                  <c:v>4.818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.454545454545454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,21 +427,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2126762168"/>
-        <c:axId val="2126765256"/>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2114121384"/>
+        <c:axId val="2105278808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126762168"/>
+        <c:axId val="2114121384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126765256"/>
+        <c:crossAx val="2105278808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,18 +450,957 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126765256"/>
+        <c:axId val="2105278808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126762168"/>
+        <c:crossAx val="2114121384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Encuesta Perfil Solicitante</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encuesta Solicitante'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encuesta Solicitante'!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encuesta Solicitante'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2120707576"/>
+        <c:axId val="2117932072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2120707576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117932072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2117932072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120707576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Encuesta Perfil Funcionario DISICO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0363674866728615"/>
+          <c:y val="0.158333333333333"/>
+          <c:w val="0.939164963075268"/>
+          <c:h val="0.75365758967629"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encuesta Funcionario Disico'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encuesta Funcionario Disico'!$B$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encuesta Funcionario Disico'!$B$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2105960600"/>
+        <c:axId val="2105970520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2105960600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105970520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105970520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105960600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.833684747739866"/>
+          <c:y val="0.0877031386701662"/>
+          <c:w val="0.0658031142968115"/>
+          <c:h val="0.0697323381452318"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Encuesta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Perfil Jefe de Area</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0335744922128636"/>
+          <c:y val="0.172400756143667"/>
+          <c:w val="0.948195103660823"/>
+          <c:h val="0.731770834883825"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encuesta Jefe Area'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encuesta Jefe Area'!$B$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encuesta Jefe Area'!$B$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2117291640"/>
+        <c:axId val="2115945928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2117291640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115945928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115945928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117291640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.896984462308065"/>
+          <c:y val="0.0435104118601432"/>
+          <c:w val="0.068172332117022"/>
+          <c:h val="0.0986121489067174"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Encuesta Perfil Jefe Departamento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encuesta Jefe Depto'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encuesta Jefe Depto'!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encuesta Jefe Depto'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2143892152"/>
+        <c:axId val="2121183000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143892152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121183000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121183000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143892152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -401,20 +1426,160 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1" title="Encuesta General"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -754,13 +1919,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="20" customFormat="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19">
+        <v>5</v>
+      </c>
+      <c r="C13" s="19">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <f>AVERAGE(B4:B14)</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <f>AVERAGE(C4:C14)</f>
+        <v>4.4545454545454541</v>
+      </c>
+      <c r="D15" s="10">
+        <f>AVERAGE(D4:D14)</f>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ref="E15:F15" si="0">AVERAGE(E4:E14)</f>
+        <v>4.8181818181818183</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4545454545454541</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -771,151 +2195,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <f>AVERAGE(B2:B6)</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>4.2</v>
-      </c>
-      <c r="D7" s="2">
-        <f>AVERAGE(D2:D6)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E7" s="2">
-        <f>AVERAGE(E2:E6)</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <f>AVERAGE(F2:F6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B7" s="10">
+        <f>AVERAGE(B4:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" ref="C7:G7" si="0">AVERAGE(C4:C6)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -926,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1010,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1025,13 +2445,13 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -1063,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1110,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1119,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1128,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1137,109 +2557,166 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <f>AVERAGE(B2:B4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="C5" s="4">
-        <f>AVERAGE(C2:C4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D5" s="4">
-        <f>AVERAGE(D2:D4)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E5" s="4">
-        <f>AVERAGE(E2:E4)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F5" s="4">
-        <f>AVERAGE(F2:F4)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G5" s="4">
-        <f>AVERAGE(G2:G4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="H5" s="4">
-        <f>AVERAGE(H2:H4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:L5" si="0">AVERAGE(I2:I4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="B6" s="17">
+        <f t="shared" ref="B6:I6" si="0">AVERAGE(B2:B5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="K5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5" si="1">AVERAGE(M2:M4)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5" si="2">AVERAGE(N2:N4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5" si="3">AVERAGE(O2:O4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" ref="P5" si="4">AVERAGE(P2:P4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" ref="Q5" si="5">AVERAGE(Q2:Q4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" ref="R5:S5" si="6">AVERAGE(R2:R4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" ref="J6:M6" si="1">AVERAGE(J2:J5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" ref="N6" si="2">AVERAGE(N2:N5)</f>
+        <v>4.25</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" ref="O6" si="3">AVERAGE(O2:O5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6" si="4">AVERAGE(P2:P5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" ref="Q6" si="5">AVERAGE(Q2:Q5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" ref="R6:S6" si="6">AVERAGE(R2:R5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="S6" s="17">
         <f t="shared" si="6"/>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1251,10 +2728,382 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="19" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(B3:B4)</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="0">AVERAGE(C3:C4)</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1266,21 +3115,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Pruebas/ResultadosEncusta.xlsx
+++ b/Pruebas/ResultadosEncusta.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15320" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20640" windowHeight="11760" tabRatio="826" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Encuesta General" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Encuesta Funcionario Disico" sheetId="3" r:id="rId3"/>
     <sheet name="Encuesta Jefe Area" sheetId="4" r:id="rId4"/>
     <sheet name="Encuesta Jefe Depto" sheetId="5" r:id="rId5"/>
-    <sheet name="x" sheetId="6" r:id="rId6"/>
+    <sheet name="Promedio general por encuesta" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>P1</t>
   </si>
@@ -96,6 +97,45 @@
   </si>
   <si>
     <t>ENCUESTA PERFIL JEFE DE AREA</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Nota Promedio</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Funcionario Disico</t>
+  </si>
+  <si>
+    <t>Jefe de Area</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento</t>
+  </si>
+  <si>
+    <t>Conforme</t>
+  </si>
+  <si>
+    <t>Completamente Conforme</t>
+  </si>
+  <si>
+    <t>Disconforme</t>
+  </si>
+  <si>
+    <t>Medianamente Conforme</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>N° Casos de Prueba</t>
   </si>
 </sst>
 </file>
@@ -231,21 +271,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,16 +292,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,6 +305,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -303,13 +344,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -401,19 +447,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.454545454545454</c:v>
+                  <c:v>4.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.363636363636363</c:v>
+                  <c:v>4.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.818181818181818</c:v>
+                  <c:v>4.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.454545454545454</c:v>
+                  <c:v>4.4545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,20 +475,39 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2114121384"/>
-        <c:axId val="2105278808"/>
+        <c:axId val="109523456"/>
+        <c:axId val="75396160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114121384"/>
+        <c:axId val="109523456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Pregunta Encuesta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105278808"/>
+        <c:crossAx val="75396160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -450,37 +515,51 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105278808"/>
+        <c:axId val="75396160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="1.0"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Nota Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114121384"/>
+        <c:crossAx val="109523456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -489,7 +568,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -584,10 +663,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.666666666666667</c:v>
@@ -599,7 +678,7 @@
                   <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,20 +694,39 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2120707576"/>
-        <c:axId val="2117932072"/>
+        <c:axId val="40022016"/>
+        <c:axId val="75397888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120707576"/>
+        <c:axId val="40022016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Pregunta Encuesta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117932072"/>
+        <c:crossAx val="75397888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -636,36 +734,55 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117932072"/>
+        <c:axId val="75397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="1.0"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Nota</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> Promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120707576"/>
+        <c:crossAx val="40022016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -674,7 +791,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -711,10 +828,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0363674866728615"/>
-          <c:y val="0.158333333333333"/>
-          <c:w val="0.939164963075268"/>
-          <c:h val="0.75365758967629"/>
+          <c:x val="4.959801077496892E-2"/>
+          <c:y val="0.15515860517435323"/>
+          <c:w val="0.94341617628305108"/>
+          <c:h val="0.73460992375953005"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -882,20 +999,39 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2105960600"/>
-        <c:axId val="2105970520"/>
+        <c:axId val="40025600"/>
+        <c:axId val="75432512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105960600"/>
+        <c:axId val="40025600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Pregunta Encuesta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105970520"/>
+        <c:crossAx val="75432512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,44 +1039,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105970520"/>
+        <c:axId val="75432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Nota Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105960600"/>
+        <c:crossAx val="40025600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.833684747739866"/>
-          <c:y val="0.0877031386701662"/>
-          <c:w val="0.0658031142968115"/>
-          <c:h val="0.0697323381452318"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -949,7 +1090,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -991,10 +1132,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0335744922128636"/>
-          <c:y val="0.172400756143667"/>
-          <c:w val="0.948195103660823"/>
-          <c:h val="0.731770834883825"/>
+          <c:x val="4.8049732625400104E-2"/>
+          <c:y val="0.17240075614366701"/>
+          <c:w val="0.94337005974373833"/>
+          <c:h val="0.71129289726156242"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1024,7 +1165,7 @@
                 <a:pPr>
                   <a:defRPr sz="1100"/>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-CL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1105,13 +1246,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.5</c:v>
@@ -1120,7 +1261,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.5</c:v>
@@ -1132,7 +1273,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.5</c:v>
@@ -1141,22 +1282,22 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,20 +1313,44 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2117291640"/>
-        <c:axId val="2115945928"/>
+        <c:axId val="40431616"/>
+        <c:axId val="75434240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117291640"/>
+        <c:axId val="40431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Pregunta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> Encuesta</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115945928"/>
+        <c:crossAx val="75434240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,45 +1358,55 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115945928"/>
+        <c:axId val="75434240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="1.0"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Nota</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> Promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117291640"/>
+        <c:crossAx val="40431616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.896984462308065"/>
-          <c:y val="0.0435104118601432"/>
-          <c:w val="0.068172332117022"/>
-          <c:h val="0.0986121489067174"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1240,7 +1415,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1272,7 +1447,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6819062711500676E-2"/>
+          <c:y val="0.17405401884226726"/>
+          <c:w val="0.91473229997193761"/>
+          <c:h val="0.66262993754529387"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1335,22 +1520,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,11 +1551,455 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2143892152"/>
-        <c:axId val="2121183000"/>
+        <c:axId val="40433152"/>
+        <c:axId val="75435968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143892152"/>
+        <c:axId val="40433152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1200"/>
+                  <a:t>Pregunta Encuesta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75435968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75435968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1200"/>
+                  <a:t>Nota Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40433152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nota Promedio Encuestas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10548903886902919"/>
+          <c:y val="0.21495560181414106"/>
+          <c:w val="0.8702220372714633"/>
+          <c:h val="0.59471646503957121"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Promedio general por encuesta'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nota Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Promedio general por encuesta'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>General</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solicitante</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Funcionario Disico</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jefe de Area</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jefe de Departamento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Promedio general por encuesta'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="40263680"/>
+        <c:axId val="75437696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40263680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1100"/>
+                  <a:t>Encuesta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75437696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75437696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1100"/>
+                  <a:t>Nota Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40263680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resumen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pruebas de Aceptación</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7813039608461707E-2"/>
+          <c:y val="0.24027151803345911"/>
+          <c:w val="0.85804095314731132"/>
+          <c:h val="0.39993876141591522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N° Casos de Prueba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$3:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Disconforme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medianamente Conforme</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conforme</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Completamente Conforme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="40267264"/>
+        <c:axId val="75439424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +2008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121183000"/>
+        <c:crossAx val="75439424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,11 +2016,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121183000"/>
+        <c:axId val="75439424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="1.0"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1400,14 +2029,24 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143892152"/>
+        <c:crossAx val="40267264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1813447282987978E-2"/>
+          <c:y val="0.81089821985460997"/>
+          <c:w val="0.29935229858607865"/>
+          <c:h val="0.1006703819024503"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1416,7 +2055,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1426,16 +2065,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1461,16 +2100,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148770</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1497,15 +2136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>736599</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1537,10 +2176,10 @@
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1566,20 +2205,90 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1919,264 +2628,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19">
-        <v>4</v>
-      </c>
-      <c r="D12" s="19">
-        <v>4</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="20" customFormat="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19">
-        <v>5</v>
-      </c>
-      <c r="C13" s="19">
-        <v>4</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <f>AVERAGE(B4:B14)</f>
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <f>AVERAGE(C4:C14)</f>
         <v>4.4545454545454541</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <f>AVERAGE(D4:D14)</f>
         <v>4.3636363636363633</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f t="shared" ref="E15:F15" si="0">AVERAGE(E4:E14)</f>
         <v>4.8181818181818183</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>4.4545454545454541</v>
+      </c>
+      <c r="G15" s="17">
+        <f>AVERAGE(B15:F15)</f>
+        <v>4.6181818181818173</v>
       </c>
     </row>
   </sheetData>
@@ -2195,134 +2908,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="6">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="13">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>AVERAGE(B4:B6)</f>
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f t="shared" ref="C7:G7" si="0">AVERAGE(C4:C6)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="17">
+        <f>AVERAGE(B7:G7)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2346,15 +3063,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +3130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>4</v>
       </c>
@@ -2469,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
@@ -2525,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -2581,7 +3298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -2637,81 +3354,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <f t="shared" ref="B6:I6" si="0">AVERAGE(B2:B5)</f>
         <v>4.75</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <f t="shared" ref="J6:M6" si="1">AVERAGE(J2:J5)</f>
         <v>4.75</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <f t="shared" ref="N6" si="2">AVERAGE(N2:N5)</f>
         <v>4.25</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="13">
         <f t="shared" ref="O6" si="3">AVERAGE(O2:O5)</f>
         <v>4.75</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="13">
         <f t="shared" ref="P6" si="4">AVERAGE(P2:P5)</f>
         <v>4.5</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="13">
         <f t="shared" ref="Q6" si="5">AVERAGE(Q2:Q5)</f>
         <v>4.75</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="13">
         <f t="shared" ref="R6:S6" si="6">AVERAGE(R2:R5)</f>
         <v>4.5</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="13">
         <f t="shared" si="6"/>
         <v>4.75</v>
+      </c>
+      <c r="T6" s="17">
+        <f>AVERAGE(B6:S6)</f>
+        <v>4.5555555555555554</v>
       </c>
     </row>
   </sheetData>
@@ -2728,40 +3449,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="19" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +3538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
@@ -2873,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -2929,7 +3650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3004,6 +3725,10 @@
       <c r="S5">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="T5">
+        <f>AVERAGE(B5:S5)</f>
+        <v>4.7222222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -3023,64 +3748,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(B4:G4)</f>
         <v>5</v>
       </c>
     </row>
@@ -3100,19 +3829,178 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>